--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1677,28 +1677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.6619024101807</v>
+        <v>362.5129496948834</v>
       </c>
       <c r="AB2" t="n">
-        <v>362.1220909366897</v>
+        <v>496.0062107151558</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.561666819238</v>
+        <v>448.6680741135895</v>
       </c>
       <c r="AD2" t="n">
-        <v>264661.9024101807</v>
+        <v>362512.9496948834</v>
       </c>
       <c r="AE2" t="n">
-        <v>362122.0909366898</v>
+        <v>496006.2107151558</v>
       </c>
       <c r="AF2" t="n">
         <v>8.454383330648037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.56481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>327561.666819238</v>
+        <v>448668.0741135895</v>
       </c>
     </row>
     <row r="3">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.4106540708258</v>
+        <v>260.8629831555622</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.2647454585483</v>
+        <v>356.9242420160315</v>
       </c>
       <c r="AC3" t="n">
-        <v>238.1391276464522</v>
+        <v>322.8598933043406</v>
       </c>
       <c r="AD3" t="n">
-        <v>192410.6540708258</v>
+        <v>260862.9831555622</v>
       </c>
       <c r="AE3" t="n">
-        <v>263264.7454585483</v>
+        <v>356924.2420160315</v>
       </c>
       <c r="AF3" t="n">
         <v>1.106345118342963e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.18981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>238139.1276464522</v>
+        <v>322859.8933043407</v>
       </c>
     </row>
     <row r="4">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.6537810415019</v>
+        <v>261.1061101262383</v>
       </c>
       <c r="AB4" t="n">
-        <v>263.597402505832</v>
+        <v>357.2568990633155</v>
       </c>
       <c r="AC4" t="n">
-        <v>238.4400363720304</v>
+        <v>323.1608020299188</v>
       </c>
       <c r="AD4" t="n">
-        <v>192653.7810415019</v>
+        <v>261106.1101262383</v>
       </c>
       <c r="AE4" t="n">
-        <v>263597.402505832</v>
+        <v>357256.8990633155</v>
       </c>
       <c r="AF4" t="n">
         <v>1.105965420318649e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.18981481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>238440.0363720304</v>
+        <v>323160.8020299188</v>
       </c>
     </row>
   </sheetData>
@@ -2186,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.8738739998288</v>
+        <v>297.250947392992</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.8411345571447</v>
+        <v>406.7118600093672</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.1292789082839</v>
+        <v>367.895850913753</v>
       </c>
       <c r="AD2" t="n">
-        <v>219873.8739998288</v>
+        <v>297250.947392992</v>
       </c>
       <c r="AE2" t="n">
-        <v>300841.1345571447</v>
+        <v>406711.8600093672</v>
       </c>
       <c r="AF2" t="n">
         <v>1.065060207952902e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>272129.2789082839</v>
+        <v>367895.850913753</v>
       </c>
     </row>
     <row r="3">
@@ -2292,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.13281933689</v>
+        <v>255.8293435799415</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.4116232508313</v>
+        <v>350.0369942799966</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.8446192073293</v>
+        <v>316.6299548260252</v>
       </c>
       <c r="AD3" t="n">
-        <v>188132.81933689</v>
+        <v>255829.3435799415</v>
       </c>
       <c r="AE3" t="n">
-        <v>257411.6232508313</v>
+        <v>350036.9942799966</v>
       </c>
       <c r="AF3" t="n">
         <v>1.200173585685127e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.30555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>232844.6192073293</v>
+        <v>316629.9548260252</v>
       </c>
     </row>
   </sheetData>
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.9803172247912</v>
+        <v>274.7568513349013</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.6218925357678</v>
+        <v>375.9344454132073</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.5078031429724</v>
+        <v>340.055789570278</v>
       </c>
       <c r="AD2" t="n">
-        <v>199980.3172247912</v>
+        <v>274756.8513349013</v>
       </c>
       <c r="AE2" t="n">
-        <v>273621.8925357678</v>
+        <v>375934.4454132073</v>
       </c>
       <c r="AF2" t="n">
         <v>1.47545094525603e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>247507.8031429724</v>
+        <v>340055.789570278</v>
       </c>
     </row>
   </sheetData>
@@ -2886,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.0693353012069</v>
+        <v>258.4141718116378</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.7977380600345</v>
+        <v>353.5736703013425</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.7166907786034</v>
+        <v>319.8290954515445</v>
       </c>
       <c r="AD2" t="n">
-        <v>192069.3353012069</v>
+        <v>258414.1718116378</v>
       </c>
       <c r="AE2" t="n">
-        <v>262797.7380600345</v>
+        <v>353573.6703013425</v>
       </c>
       <c r="AF2" t="n">
         <v>1.373782364204101e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.11574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>237716.6907786034</v>
+        <v>319829.0954515445</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.0863888949937</v>
+        <v>292.3475776155909</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.081221526462</v>
+        <v>400.0028531585195</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.7780312615768</v>
+        <v>361.8271422606</v>
       </c>
       <c r="AD2" t="n">
-        <v>209086.3888949937</v>
+        <v>292347.5776155909</v>
       </c>
       <c r="AE2" t="n">
-        <v>286081.221526462</v>
+        <v>400002.8531585195</v>
       </c>
       <c r="AF2" t="n">
         <v>1.549523505687596e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.71990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>258778.0312615768</v>
+        <v>361827.1422606</v>
       </c>
     </row>
   </sheetData>
@@ -3480,28 +3480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.2022905923309</v>
+        <v>312.5484834629938</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.1317092121518</v>
+        <v>427.6426237400044</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.7240513506054</v>
+        <v>386.8290119304496</v>
       </c>
       <c r="AD2" t="n">
-        <v>225202.2905923309</v>
+        <v>312548.4834629938</v>
       </c>
       <c r="AE2" t="n">
-        <v>308131.7092121518</v>
+        <v>427642.6237400044</v>
       </c>
       <c r="AF2" t="n">
         <v>1.007027530173433e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.64351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>278724.0513506053</v>
+        <v>386829.0119304496</v>
       </c>
     </row>
     <row r="3">
@@ -3586,28 +3586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.0668139362606</v>
+        <v>256.9619950203427</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.6895558666232</v>
+        <v>351.5867379498077</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.0005877278601</v>
+        <v>318.0317931350689</v>
       </c>
       <c r="AD3" t="n">
-        <v>189066.8139362606</v>
+        <v>256961.9950203427</v>
       </c>
       <c r="AE3" t="n">
-        <v>258689.5558666232</v>
+        <v>351586.7379498077</v>
       </c>
       <c r="AF3" t="n">
         <v>1.176204796022638e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.24768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>234000.5877278601</v>
+        <v>318031.7931350689</v>
       </c>
     </row>
   </sheetData>
@@ -3883,28 +3883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.2358349171695</v>
+        <v>321.0295333219721</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.65058250481</v>
+        <v>439.2467703145714</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.7162111220011</v>
+        <v>397.3256750424621</v>
       </c>
       <c r="AD2" t="n">
-        <v>229235.8349171695</v>
+        <v>321029.5333219721</v>
       </c>
       <c r="AE2" t="n">
-        <v>313650.58250481</v>
+        <v>439246.7703145714</v>
       </c>
       <c r="AF2" t="n">
         <v>1.566000019578669e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.17824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>283716.2111220011</v>
+        <v>397325.6750424621</v>
       </c>
     </row>
   </sheetData>
@@ -4180,28 +4180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.5214077587137</v>
+        <v>263.1947926086795</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.20681883911</v>
+        <v>360.1147265819594</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.8502382341995</v>
+        <v>325.7458825011695</v>
       </c>
       <c r="AD2" t="n">
-        <v>186521.4077587137</v>
+        <v>263194.7926086795</v>
       </c>
       <c r="AE2" t="n">
-        <v>255206.81883911</v>
+        <v>360114.7265819594</v>
       </c>
       <c r="AF2" t="n">
         <v>1.259461067612612e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>230850.2382341995</v>
+        <v>325745.8825011696</v>
       </c>
     </row>
     <row r="3">
@@ -4286,28 +4286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.0000057127616</v>
+        <v>261.6733905627274</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.1251694403181</v>
+        <v>358.0330771831665</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.9672585324144</v>
+        <v>323.8629027993841</v>
       </c>
       <c r="AD3" t="n">
-        <v>185000.0057127616</v>
+        <v>261673.3905627274</v>
       </c>
       <c r="AE3" t="n">
-        <v>253125.1694403181</v>
+        <v>358033.0771831665</v>
       </c>
       <c r="AF3" t="n">
         <v>1.283791308830615e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.54861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>228967.2585324144</v>
+        <v>323862.9027993841</v>
       </c>
     </row>
   </sheetData>
@@ -4583,28 +4583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.4690735245894</v>
+        <v>281.6777969920315</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.7636069351003</v>
+        <v>385.4039885918659</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.0633609399849</v>
+        <v>348.6215728385528</v>
       </c>
       <c r="AD2" t="n">
-        <v>204469.0735245894</v>
+        <v>281677.7969920314</v>
       </c>
       <c r="AE2" t="n">
-        <v>279763.6069351003</v>
+        <v>385403.9885918659</v>
       </c>
       <c r="AF2" t="n">
         <v>1.133523294530105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>253063.3609399849</v>
+        <v>348621.5728385528</v>
       </c>
     </row>
     <row r="3">
@@ -4689,28 +4689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.080021894353</v>
+        <v>254.5703351206572</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.9711393438076</v>
+        <v>348.3143633624716</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.5416130626596</v>
+        <v>315.0717293855406</v>
       </c>
       <c r="AD3" t="n">
-        <v>187080.021894353</v>
+        <v>254570.3351206572</v>
       </c>
       <c r="AE3" t="n">
-        <v>255971.1393438076</v>
+        <v>348314.3633624716</v>
       </c>
       <c r="AF3" t="n">
         <v>1.226101495917276e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>231541.6130626596</v>
+        <v>315071.7293855406</v>
       </c>
     </row>
   </sheetData>
@@ -4986,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.1100980909039</v>
+        <v>345.6701170210573</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.4751820528245</v>
+        <v>472.9611039974914</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.0761471342145</v>
+        <v>427.8223600370486</v>
       </c>
       <c r="AD2" t="n">
-        <v>248110.0980909039</v>
+        <v>345670.1170210573</v>
       </c>
       <c r="AE2" t="n">
-        <v>339475.1820528245</v>
+        <v>472961.1039974914</v>
       </c>
       <c r="AF2" t="n">
         <v>8.931683482000397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.93981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>307076.1471342145</v>
+        <v>427822.3600370486</v>
       </c>
     </row>
     <row r="3">
@@ -5092,28 +5092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.4836986144713</v>
+        <v>259.7562236441675</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.9964441087761</v>
+        <v>355.4099248257577</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.9918711974297</v>
+        <v>321.490100421349</v>
       </c>
       <c r="AD3" t="n">
-        <v>191483.6986144712</v>
+        <v>259756.2236441675</v>
       </c>
       <c r="AE3" t="n">
-        <v>261996.444108776</v>
+        <v>355409.9248257577</v>
       </c>
       <c r="AF3" t="n">
         <v>1.128878626215631e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.18981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>236991.8711974297</v>
+        <v>321490.1004213491</v>
       </c>
     </row>
     <row r="4">
@@ -5198,28 +5198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.6901277389027</v>
+        <v>259.962652768599</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.2788895438332</v>
+        <v>355.692370260815</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.2473604365798</v>
+        <v>321.7455896604991</v>
       </c>
       <c r="AD4" t="n">
-        <v>191690.1277389027</v>
+        <v>259962.652768599</v>
       </c>
       <c r="AE4" t="n">
-        <v>262278.8895438332</v>
+        <v>355692.370260815</v>
       </c>
       <c r="AF4" t="n">
         <v>1.128754028981862e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.18981481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>237247.3604365798</v>
+        <v>321745.5896604991</v>
       </c>
     </row>
   </sheetData>
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.0974665522897</v>
+        <v>259.2212370471597</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.5220314268579</v>
+        <v>354.6779325617886</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.6125603574308</v>
+        <v>320.8279684716956</v>
       </c>
       <c r="AD2" t="n">
-        <v>183097.4665522897</v>
+        <v>259221.2370471596</v>
       </c>
       <c r="AE2" t="n">
-        <v>250522.0314268579</v>
+        <v>354677.9325617886</v>
       </c>
       <c r="AF2" t="n">
         <v>1.345009999993133e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.84953703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>226612.5603574308</v>
+        <v>320827.9684716956</v>
       </c>
     </row>
   </sheetData>
@@ -5792,28 +5792,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.7377012586321</v>
+        <v>265.9451682078089</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.9757376154368</v>
+        <v>363.8779118146961</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.0685794992439</v>
+        <v>329.1499146169574</v>
       </c>
       <c r="AD2" t="n">
-        <v>190737.7012586321</v>
+        <v>265945.1682078089</v>
       </c>
       <c r="AE2" t="n">
-        <v>260975.7376154368</v>
+        <v>363877.911814696</v>
       </c>
       <c r="AF2" t="n">
         <v>1.443532240781532e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>236068.5794992439</v>
+        <v>329149.9146169574</v>
       </c>
     </row>
   </sheetData>
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.4616297762864</v>
+        <v>283.1811711163787</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.9122014858486</v>
+        <v>387.4609713929833</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.8658440107997</v>
+        <v>350.482240088125</v>
       </c>
       <c r="AD2" t="n">
-        <v>199461.6297762864</v>
+        <v>283181.1711163787</v>
       </c>
       <c r="AE2" t="n">
-        <v>272912.2014858486</v>
+        <v>387460.9713929833</v>
       </c>
       <c r="AF2" t="n">
         <v>1.517124106658357e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.81712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>246865.8440107997</v>
+        <v>350482.240088125</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.9637825681411</v>
+        <v>351.2586525422226</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.3797190502523</v>
+        <v>480.6075848463365</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.6080406006612</v>
+        <v>434.7390714855833</v>
       </c>
       <c r="AD2" t="n">
-        <v>250963.7825681411</v>
+        <v>351258.6525422226</v>
       </c>
       <c r="AE2" t="n">
-        <v>343379.7190502523</v>
+        <v>480607.5848463365</v>
       </c>
       <c r="AF2" t="n">
         <v>1.553274299102584e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.72453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>310608.0406006612</v>
+        <v>434739.0714855833</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.8138782599284</v>
+        <v>267.1237702165276</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.3941634012738</v>
+        <v>365.4905270792759</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.3018081574546</v>
+        <v>330.6086241440055</v>
       </c>
       <c r="AD2" t="n">
-        <v>199813.8782599284</v>
+        <v>267123.7702165276</v>
       </c>
       <c r="AE2" t="n">
-        <v>273394.1634012738</v>
+        <v>365490.5270792759</v>
       </c>
       <c r="AF2" t="n">
         <v>1.199992768696607e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>247301.8081574546</v>
+        <v>330608.6241440055</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.5982467659036</v>
+        <v>263.5275628848626</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.3119533586449</v>
+        <v>360.5700375546215</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.9453388627472</v>
+        <v>326.1577392336337</v>
       </c>
       <c r="AD3" t="n">
-        <v>186598.2467659036</v>
+        <v>263527.5628848626</v>
       </c>
       <c r="AE3" t="n">
-        <v>255311.9533586449</v>
+        <v>360570.0375546215</v>
       </c>
       <c r="AF3" t="n">
         <v>1.247173202870956e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.53703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>230945.3388627472</v>
+        <v>326157.7392336337</v>
       </c>
     </row>
   </sheetData>
@@ -10387,28 +10387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.6807436209262</v>
+        <v>329.2062175310833</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.6782556239046</v>
+        <v>450.4344703793257</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.1187870171042</v>
+        <v>407.4456367150717</v>
       </c>
       <c r="AD2" t="n">
-        <v>241680.7436209262</v>
+        <v>329206.2175310833</v>
       </c>
       <c r="AE2" t="n">
-        <v>330678.2556239046</v>
+        <v>450434.4703793257</v>
       </c>
       <c r="AF2" t="n">
         <v>9.45461579614671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.32638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>299118.7870171042</v>
+        <v>407445.6367150717</v>
       </c>
     </row>
     <row r="3">
@@ -10493,28 +10493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.4779318392597</v>
+        <v>258.564913582277</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.6203096356336</v>
+        <v>353.7799218421885</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.7470730669868</v>
+        <v>320.0156626348081</v>
       </c>
       <c r="AD3" t="n">
-        <v>190477.9318392597</v>
+        <v>258564.913582277</v>
       </c>
       <c r="AE3" t="n">
-        <v>260620.3096356337</v>
+        <v>353779.9218421885</v>
       </c>
       <c r="AF3" t="n">
         <v>1.149311699002707e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.24768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>235747.0730669867</v>
+        <v>320015.6626348081</v>
       </c>
     </row>
   </sheetData>
@@ -10790,28 +10790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.0150891335754</v>
+        <v>440.3289749154103</v>
       </c>
       <c r="AB2" t="n">
-        <v>429.6492983205698</v>
+        <v>602.4775294226242</v>
       </c>
       <c r="AC2" t="n">
-        <v>388.6441723054313</v>
+        <v>544.9779195970516</v>
       </c>
       <c r="AD2" t="n">
-        <v>314015.0891335754</v>
+        <v>440328.9749154103</v>
       </c>
       <c r="AE2" t="n">
-        <v>429649.2983205698</v>
+        <v>602477.5294226243</v>
       </c>
       <c r="AF2" t="n">
         <v>1.461308009547615e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>388644.1723054313</v>
+        <v>544977.9195970516</v>
       </c>
     </row>
   </sheetData>
@@ -11087,28 +11087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.4057069526208</v>
+        <v>266.8490846102542</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.889732476283</v>
+        <v>365.114690114499</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.8953439733711</v>
+        <v>330.2686565316564</v>
       </c>
       <c r="AD2" t="n">
-        <v>191405.7069526209</v>
+        <v>266849.0846102542</v>
       </c>
       <c r="AE2" t="n">
-        <v>261889.732476283</v>
+        <v>365114.690114499</v>
       </c>
       <c r="AF2" t="n">
         <v>1.408086670539286e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>236895.3439733711</v>
+        <v>330268.6565316564</v>
       </c>
     </row>
   </sheetData>
@@ -11384,28 +11384,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.3762872308774</v>
+        <v>260.7817054050764</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.2717702968873</v>
+        <v>356.8130342120955</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.1953066054791</v>
+        <v>322.7592990171312</v>
       </c>
       <c r="AD2" t="n">
-        <v>184376.2872308774</v>
+        <v>260781.7054050764</v>
       </c>
       <c r="AE2" t="n">
-        <v>252271.7702968873</v>
+        <v>356813.0342120955</v>
       </c>
       <c r="AF2" t="n">
         <v>1.305804162592502e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.76851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>228195.3066054791</v>
+        <v>322759.2990171312</v>
       </c>
     </row>
     <row r="3">
@@ -11490,28 +11490,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.2575786977716</v>
+        <v>260.6629968719706</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.1093480448412</v>
+        <v>356.6506119600493</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.0483857052072</v>
+        <v>322.6123781168592</v>
       </c>
       <c r="AD3" t="n">
-        <v>184257.5786977716</v>
+        <v>260662.9968719706</v>
       </c>
       <c r="AE3" t="n">
-        <v>252109.3480448412</v>
+        <v>356650.6119600493</v>
       </c>
       <c r="AF3" t="n">
         <v>1.310936529680011e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.71064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>228048.3857052072</v>
+        <v>322612.3781168592</v>
       </c>
     </row>
   </sheetData>
